--- a/Result/check3/2025-04-01.xlsx
+++ b/Result/check3/2025-04-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6199</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2098.0</t>
+          <t>1897.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20.30</t>
+          <t>53.63</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>132.5</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-10.42</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -743,62 +743,62 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>26.74</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -813,32 +813,32 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>296120.0</t>
+          <t>151442.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>天品</t>
+          <t>全譜</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -853,52 +853,52 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>200.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>80.64%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>-2.58%</t>
+          <t>-107.88%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>30.93</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>殯葬服務79.63%、租賃16.66%、文創3.72% (2024年)</t>
+          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>天品-其他-上櫃</t>
+          <t>全譜-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>6199</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>989.0</t>
+          <t>2098.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>20.30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>28.65</t>
+          <t>132.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>-22.69</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -985,62 +985,62 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>681</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-8.33</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>26.74</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>241.0</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1065,22 +1065,22 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>244830.0</t>
+          <t>296120.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>天鉞電</t>
+          <t>天品</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1095,52 +1095,52 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>530.0</t>
+          <t>180.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>80.64%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>-2.58%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>6670</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+          <t>殯葬服務79.63%、租賃16.66%、文創3.72% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>天鉞電-光電業-上櫃</t>
+          <t>天品-其他-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -1167,235 +1167,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>5251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>989.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>244830.0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>天鉞電</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>582.5</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>42.46%</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>61.25</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>1245</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>天鉞電-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>3434</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>9.83</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>5498.0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>9.14</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>3.24</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>18.81</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>1.44</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>43.6</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2224</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>7287</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>3.53</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>0.7</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>0.17</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>0.37</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>2.95</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>2.16</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>66.0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>98.0</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>-5034.0</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>哲固</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>6.47</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>28.14</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
         <is>
           <t>19.83%</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>3.38%</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>60.37</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>1317</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>61.25</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>1449</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>哲固-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>12.35</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>

--- a/Result/check3/2025-04-01.xlsx
+++ b/Result/check3/2025-04-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>773</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.93</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6199</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2098.0</t>
+          <t>989.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20.30</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>132.5</t>
+          <t>28.65</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,72 +975,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-22.69</t>
+          <t>25.39</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>768</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-8.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>26.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>241.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,32 +1055,32 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>296120.0</t>
+          <t>244830.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>天品</t>
+          <t>天鉞電</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1095,52 +1095,52 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>180.0</t>
+          <t>640.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>80.64%</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>-2.58%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>6670</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>殯葬服務79.63%、租賃16.66%、文創3.72% (2024年)</t>
+          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>天品-其他-上櫃</t>
+          <t>天鉞電-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>989.0</t>
+          <t>5498.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>18.81</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>28.65</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>18.03</t>
+          <t>23.24</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5259</t>
+          <t>7536</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>241.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>98.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,27 +1297,27 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>244830.0</t>
+          <t>-5034.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>天鉞電</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1332,47 +1332,47 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>582.5</t>
+          <t>34.01</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>天鉞電-光電業-上櫃</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1396,248 +1396,6 @@
         </is>
       </c>
       <c r="AV4" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3434</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5498.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>18.81</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>43.6</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>15.67</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>7287</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>18.17</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>-5034.0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>哲固</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>30.96</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>19.83%</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>3.38%</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>61.25</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>1449</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>哲固-光電業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>12.35</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>

--- a/Result/check3/2025-04-01.xlsx
+++ b/Result/check3/2025-04-01.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>14.69</t>
+          <t>22.38</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>32.56</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>25.39</t>
+          <t>32.11</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>55</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>5222</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>640.0</t>
+          <t>703.33</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>23.24</t>
+          <t>30.13</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7536</t>
+          <t>7612</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>34.01</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>1749</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
